--- a/data_detail.xlsx
+++ b/data_detail.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven_fang\Desktop\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CDFCE4-74AB-4761-A8D5-C77E2ED44E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E772F8E1-9D17-44E1-9EE1-EB08B6897593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09C1C6D5-CE31-4587-92BB-EC780673E784}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="12750" windowHeight="15600" xr2:uid="{09C1C6D5-CE31-4587-92BB-EC780673E784}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="30">
   <si>
     <t>MD052310310270</t>
   </si>
@@ -225,6 +228,10 @@
       </rPr>
       <t>白點</t>
     </r>
+  </si>
+  <si>
+    <t>21412 REV.B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -314,22 +321,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D8DA5C-3A64-4520-97D4-50DB27EAF513}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -697,34 +704,34 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>45476</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>45477</v>
+        <v>45474</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -732,138 +739,138 @@
     </row>
     <row r="5" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>45478</v>
+        <v>45474</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>45485</v>
+        <v>45474</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>45488</v>
+        <v>45474</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
+        <v>45475</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
         <v>45476</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45479</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1">
-        <v>154</v>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
@@ -874,146 +881,146 @@
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>45481</v>
+        <v>45476</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>45481</v>
+        <v>45476</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>45481</v>
+        <v>45476</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
-        <v>45483</v>
+        <v>45476</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1">
-        <v>17</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>45483</v>
+        <v>45477</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>45478</v>
+        <v>45477</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>45481</v>
+        <v>45477</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45482</v>
+        <v>45477</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1021,291 +1028,291 @@
     </row>
     <row r="22" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>45474</v>
+        <v>45479</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1">
-        <v>27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="2">
-        <v>45474</v>
+        <v>45479</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>45474</v>
+        <v>45479</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="1">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
-        <v>45474</v>
+        <v>45481</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1">
-        <v>176</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1">
-        <v>127</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1">
-        <v>127</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="2">
-        <v>45483</v>
+        <v>45481</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1">
-        <v>39</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
-        <v>45483</v>
+        <v>45482</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="1">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="2">
-        <v>45484</v>
+        <v>45482</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="2">
-        <v>45484</v>
+        <v>45482</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="1">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2">
-        <v>45485</v>
+        <v>45483</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
-        <v>45485</v>
+        <v>45483</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
@@ -1316,13 +1323,13 @@
         <v>20</v>
       </c>
       <c r="C39" s="2">
-        <v>45488</v>
+        <v>45483</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
@@ -1333,13 +1340,13 @@
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <v>45488</v>
+        <v>45483</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
@@ -1350,13 +1357,13 @@
         <v>20</v>
       </c>
       <c r="C41" s="2">
-        <v>45488</v>
+        <v>45484</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1">
-        <v>230</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
@@ -1367,30 +1374,30 @@
         <v>20</v>
       </c>
       <c r="C42" s="2">
-        <v>45488</v>
+        <v>45484</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="1">
-        <v>230</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>45489</v>
+        <v>45485</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
@@ -1401,13 +1408,13 @@
         <v>20</v>
       </c>
       <c r="C44" s="2">
-        <v>45489</v>
+        <v>45485</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
@@ -1418,143 +1425,143 @@
         <v>20</v>
       </c>
       <c r="C45" s="2">
-        <v>45490</v>
+        <v>45485</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E45" s="1">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>45490</v>
+        <v>45488</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="2">
-        <v>45476</v>
+        <v>45488</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="1">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="2">
-        <v>45476</v>
+        <v>45488</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1">
-        <v>155</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="2">
-        <v>45477</v>
+        <v>45488</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E49" s="1">
-        <v>24</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="2">
-        <v>45477</v>
+        <v>45488</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E50" s="1">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="2">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="2">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="1">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="2">
-        <v>45479</v>
+        <v>45490</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>23</v>
@@ -1565,90 +1572,27 @@
     </row>
     <row r="54" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="2">
-        <v>45479</v>
+        <v>45490</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="2">
-        <v>45481</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="2">
-        <v>45481</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="2">
-        <v>45482</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="2">
-        <v>45482</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="1">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{C1D8DA5C-3A64-4520-97D4-50DB27EAF513}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E58">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
